--- a/企业新质生产力/5-13-data/data-4-criteria-final-weight.xlsx
+++ b/企业新质生产力/5-13-data/data-4-criteria-final-weight.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05495950565609956</v>
+        <v>0.05486623181719755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08204332712713142</v>
+        <v>0.08207383028781194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1892806602857541</v>
+        <v>0.1892203709896713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1657947471368646</v>
+        <v>0.1659142418828668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2788083966567174</v>
+        <v>0.2786946507963672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04441804707899102</v>
+        <v>0.04513242438637376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04109038429278586</v>
+        <v>0.0414995021869787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.044527264485417</v>
+        <v>0.04451312472288104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03536293722531147</v>
+        <v>0.03524665438576453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03266938354309784</v>
+        <v>0.03230601047944872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03104534652422273</v>
+        <v>0.03053295811673826</v>
       </c>
     </row>
   </sheetData>
